--- a/data-raw/ficha_tecnica.xlsx
+++ b/data-raw/ficha_tecnica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff3392055fd9681/SEPLAG/2022/SPLOR/DCPPN/PlanoPlurianual/ppag-2021B/bancos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m753205\Desktop\99 TABELAS APOIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AC264881-8375-4336-BFBE-6279A8A914B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F23254B-7A10-43B4-8608-BBF85A8E0DEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F2517A56A4FE8C51D13D146938BF790038D4D514" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -62,13 +62,13 @@
     <t>Vice-Governador do Estado de Minas Gerais</t>
   </si>
   <si>
-    <t>Camila Barbosa Neves</t>
+    <t>Silvia Caroline Listgarten Dias</t>
   </si>
   <si>
     <t>Secretária de Estado de Planejamento e Gestão</t>
   </si>
   <si>
-    <t xml:space="preserve">Luís Otávio Milagres de Assis </t>
+    <t>Rodrigo Ferreira Matias</t>
   </si>
   <si>
     <t>Secretário-Adjunto de Estado de Planejamento e Gestão</t>
@@ -80,7 +80,7 @@
     <t>Subsecretário de Planejamento e Orçamento</t>
   </si>
   <si>
-    <t>Francisco Alves de Oliveira Júnior</t>
+    <t>Gabriel Braico Dornas</t>
   </si>
   <si>
     <t>Assessoria de Inteligência de Dados</t>
@@ -147,9 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEL1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -445,7 +448,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -506,8 +509,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -533,6 +536,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -615,6 +619,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -761,15 +770,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
@@ -780,14 +780,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C943E616-4D9C-4CC9-A9D0-3A927A8AFD5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDE799C8-D304-41C1-9B65-F57F9E44773C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4A3115-33B5-4A64-9E7B-CE2DE6037C3F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7942961-9DCC-406C-B52B-375FF7069311}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4A3115-33B5-4A64-9E7B-CE2DE6037C3F}"/>
 </file>